--- a/TestData/UserData.xlsx
+++ b/TestData/UserData.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="2505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -34,23 +38,34 @@
     <t>Shendage</t>
   </si>
   <si>
-    <t>Pramod12</t>
-  </si>
-  <si>
-    <t>ert54656</t>
-  </si>
-  <si>
-    <t>Pramod18</t>
+    <t>Pramod1</t>
+  </si>
+  <si>
+    <t>adrgfg</t>
+  </si>
+  <si>
+    <t>shendagepramod@gmail.com</t>
+  </si>
+  <si>
+    <t>revolution2020@)@)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,13 +88,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,12 +379,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -394,14 +413,18 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>12542</v>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>